--- a/data files/Purchase Order/sanmed.xlsx
+++ b/data files/Purchase Order/sanmed.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A369F658-1A82-499D-9A63-3EA3B6BC255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5160" yWindow="1152" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -96,12 +97,6 @@
     <t>Sanguard Bed Bath Wipes</t>
   </si>
   <si>
-    <t xml:space="preserve">    Size:32x32cm, Pack of 10wipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   with pH Test Strip &amp; Glutaraldehyde Test Strip.</t>
-  </si>
-  <si>
     <t>Pkt</t>
   </si>
   <si>
@@ -109,13 +104,19 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * with pH Test Strip &amp; Glutaraldehyde Test Strip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *Size:32x32cm, Pack of 10wipes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +328,7 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,7 +362,6 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -376,11 +376,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,7 +398,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,6 +420,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -441,7 +448,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -471,9 +484,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,7 +524,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -545,6 +558,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -579,9 +593,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -754,22 +769,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="5.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -780,7 +795,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -793,8 +808,8 @@
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="9"/>
@@ -808,7 +823,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -819,8 +834,8 @@
       <c r="H4" s="11"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:9" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="9"/>
@@ -828,12 +843,12 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:9" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="9"/>
@@ -841,11 +856,11 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -854,7 +869,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -865,11 +880,11 @@
       <c r="F8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -880,26 +895,26 @@
         <v>8</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="11"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="21"/>
       <c r="D11" s="11"/>
       <c r="E11" s="16"/>
       <c r="F11" s="11"/>
@@ -907,11 +922,11 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="2"/>
       <c r="D12" s="11"/>
       <c r="E12" s="16"/>
@@ -920,9 +935,9 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="22"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2"/>
       <c r="D13" s="11"/>
       <c r="E13" s="16"/>
@@ -931,100 +946,100 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" s="33" customFormat="1">
-      <c r="A16" s="29" t="s">
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="25">
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
         <v>1</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="35">
         <v>100</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="35">
         <v>200</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="D21" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1"/>
-    <hyperlink ref="A12" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0" top="0" bottom="0.12" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1033,12 +1048,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
